--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -61,31 +61,34 @@
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
@@ -94,18 +97,15 @@
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -115,13 +115,28 @@
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>19</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>to</t>
@@ -130,7 +145,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -139,154 +154,163 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>support</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>day</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>our</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -644,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -763,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,16 +858,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,16 +908,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8561643835616438</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -984,16 +1008,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.9033942558746736</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7254901960784313</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6923076923076923</v>
+        <v>0.6937984496124031</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6841085271317829</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6613756613756614</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D12">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.8837209302325582</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6440677966101694</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8625</v>
+        <v>0.8671875</v>
       </c>
       <c r="L13">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,16 +1308,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8584905660377359</v>
+        <v>0.85625</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5973154362416108</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8536585365853658</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5861111111111111</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C16">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D16">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.852112676056338</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5272727272727272</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5178571428571429</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.509090909090909</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4888888888888889</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3968253968253968</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.7619047619047619</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3896103896103896</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -1731,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7450980392156863</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.7411764705882353</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L24">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M24">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2359249329758713</v>
+        <v>0.2734584450402145</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.7220338983050848</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L25">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1887,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1366666666666667</v>
+        <v>0.17</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26">
+        <v>0.7078651685393258</v>
+      </c>
+      <c r="L26">
         <v>63</v>
       </c>
-      <c r="K26">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L26">
-        <v>28</v>
-      </c>
       <c r="M26">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,49 +1937,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02483870967741935</v>
+        <v>0.0346839546191248</v>
       </c>
       <c r="C27">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="E27">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3023</v>
+        <v>2978</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.6974789915966386</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,37 +1987,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.015625</v>
+        <v>0.03022452504317789</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="F28">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2331</v>
+        <v>1123</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2005,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,37 +2037,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01359649122807018</v>
+        <v>0.02883799830364716</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E29">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="F29">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2249</v>
+        <v>2290</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,37 +2087,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01267605633802817</v>
+        <v>0.02402260951483749</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F30">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2103</v>
+        <v>2072</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.6702127659574468</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2105,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,37 +2137,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01098901098901099</v>
+        <v>0.02218278615794144</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="F31">
-        <v>0.48</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4230</v>
+        <v>1102</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.6629213483146067</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2163,37 +2187,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01037217815741306</v>
+        <v>0.01444833625218914</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="F32">
-        <v>0.39</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>4866</v>
+        <v>2251</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.6307692307692307</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2213,161 +2237,281 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008051846032992929</v>
+        <v>0.01319417093343836</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E33">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F33">
-        <v>0.36</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5051</v>
+        <v>5011</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M33">
         <v>28</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.01255230125523013</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>0.65</v>
+      </c>
+      <c r="F34">
+        <v>0.35</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2360</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M34">
+      <c r="B35">
+        <v>0.01172607879924953</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>0.51</v>
+      </c>
+      <c r="F35">
+        <v>0.49</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2107</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>39</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N34">
-        <v>0.98</v>
-      </c>
-      <c r="O34">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="L35">
+      <c r="B36">
+        <v>0.01148886283704572</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>112</v>
+      </c>
+      <c r="E36">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4216</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L36">
+        <v>36</v>
+      </c>
+      <c r="M36">
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01138442772921325</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>133</v>
+      </c>
+      <c r="E37">
+        <v>0.58</v>
+      </c>
+      <c r="F37">
+        <v>0.42</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4863</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>31</v>
       </c>
-      <c r="M35">
-        <v>31</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.53125</v>
-      </c>
-      <c r="L36">
-        <v>34</v>
-      </c>
-      <c r="M36">
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4487179487179487</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
-      <c r="M37">
-        <v>35</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="B38">
+        <v>0.01041264944080216</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>107</v>
+      </c>
+      <c r="E38">
+        <v>0.75</v>
+      </c>
+      <c r="F38">
+        <v>0.25</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2566</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.4426229508196721</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L38">
         <v>27</v>
@@ -2385,15 +2529,15 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.423728813559322</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
         <v>25</v>
@@ -2411,47 +2555,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.2429906542056075</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L40">
         <v>26</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.2258064516129032</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2463,423 +2607,579 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.1830985915492958</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.06746987951807229</v>
+        <v>0.0895397489539749</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>387</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.06270903010033445</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1121</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.05677655677655678</v>
+        <v>0.07449856733524356</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>515</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.02919937205651491</v>
+        <v>0.06954436450839328</v>
       </c>
       <c r="L46">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3092</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.02834645669291339</v>
+        <v>0.0625</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N47">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1234</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>0.02644964394710071</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N48">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>957</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>0.02599849284099472</v>
+        <v>0.0390015600624025</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N49">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O49">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K50">
-        <v>0.02504816955684008</v>
+        <v>0.03465851172273191</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1012</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K51">
-        <v>0.02388797364085667</v>
+        <v>0.03262233375156838</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N51">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="O51">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>2370</v>
+        <v>771</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K52">
-        <v>0.02288620470438652</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N52">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="O52">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1537</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>0.019279128248114</v>
+        <v>0.03023431594860166</v>
       </c>
       <c r="L53">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M53">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N53">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="O53">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2340</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54">
+        <v>0.02922590837282781</v>
+      </c>
+      <c r="L54">
         <v>37</v>
       </c>
-      <c r="K54">
-        <v>0.01597573306370071</v>
-      </c>
-      <c r="L54">
-        <v>79</v>
-      </c>
       <c r="M54">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N54">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="O54">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4866</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="K55">
-        <v>0.01424668227946916</v>
+        <v>0.02674638137193203</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M55">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N55">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="O55">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>5051</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="K56">
-        <v>0.01273046532045654</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M56">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N56">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="O56">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2249</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.01191310441485634</v>
+        <v>0.02346227013316424</v>
       </c>
       <c r="L57">
+        <v>37</v>
+      </c>
+      <c r="M57">
+        <v>54</v>
+      </c>
+      <c r="N57">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58">
+        <v>0.02277432712215321</v>
+      </c>
+      <c r="L58">
+        <v>55</v>
+      </c>
+      <c r="M58">
+        <v>85</v>
+      </c>
+      <c r="N58">
+        <v>0.65</v>
+      </c>
+      <c r="O58">
+        <v>0.35</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59">
+        <v>0.01706551588858376</v>
+      </c>
+      <c r="L59">
+        <v>87</v>
+      </c>
+      <c r="M59">
+        <v>154</v>
+      </c>
+      <c r="N59">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60">
+        <v>0.01558704453441296</v>
+      </c>
+      <c r="L60">
+        <v>77</v>
+      </c>
+      <c r="M60">
+        <v>133</v>
+      </c>
+      <c r="N60">
+        <v>0.58</v>
+      </c>
+      <c r="O60">
+        <v>0.42</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61">
+        <v>0.01472306613694789</v>
+      </c>
+      <c r="L61">
+        <v>63</v>
+      </c>
+      <c r="M61">
+        <v>112</v>
+      </c>
+      <c r="N61">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O61">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
         <v>51</v>
       </c>
-      <c r="M57">
-        <v>98</v>
-      </c>
-      <c r="N57">
-        <v>0.52</v>
-      </c>
-      <c r="O57">
-        <v>0.48</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>4230</v>
+      <c r="N62">
+        <v>0.51</v>
+      </c>
+      <c r="O62">
+        <v>0.49</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63">
+        <v>0.01098418277680141</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>58</v>
+      </c>
+      <c r="N63">
+        <v>0.43</v>
+      </c>
+      <c r="O63">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2251</v>
       </c>
     </row>
   </sheetData>
